--- a/kekeringan/v02-new/sample_kekeringan_anotasi_v02_new.xlsx
+++ b/kekeringan/v02-new/sample_kekeringan_anotasi_v02_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dharmapu\Documents\personal\ui\KA-AMSD_src\paper-submission\anotated_data\kekeringan\v02-new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD41EDD-290F-4A19-BB56-A285C1BC32D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75182D8-1716-4E30-9FB8-E7C933D5EFBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11307" uniqueCount="3329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11308" uniqueCount="3330">
   <si>
     <t>id</t>
   </si>
@@ -10020,6 +10020,9 @@
   </si>
   <si>
     <t>Ambalawi</t>
+  </si>
+  <si>
+    <t>2019-07-19</t>
   </si>
 </sst>
 </file>
@@ -10198,7 +10201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -10240,9 +10243,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11111,8 +11111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1650"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A946" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E948" sqref="E948"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36579,10 +36579,10 @@
       <c r="F867" s="5" t="s">
         <v>2425</v>
       </c>
-      <c r="G867" s="20" t="s">
+      <c r="G867" s="19" t="s">
         <v>2790</v>
       </c>
-      <c r="H867" s="21" t="s">
+      <c r="H867" s="20" t="s">
         <v>3301</v>
       </c>
       <c r="I867" s="5" t="s">
@@ -36615,10 +36615,10 @@
       <c r="F868" s="5" t="s">
         <v>2425</v>
       </c>
-      <c r="G868" s="20" t="s">
+      <c r="G868" s="19" t="s">
         <v>2790</v>
       </c>
-      <c r="H868" s="21" t="s">
+      <c r="H868" s="20" t="s">
         <v>2791</v>
       </c>
       <c r="I868" s="5" t="s">
@@ -36651,10 +36651,10 @@
       <c r="F869" s="5" t="s">
         <v>2425</v>
       </c>
-      <c r="G869" s="20" t="s">
+      <c r="G869" s="19" t="s">
         <v>2790</v>
       </c>
-      <c r="H869" s="21" t="s">
+      <c r="H869" s="20" t="s">
         <v>2791</v>
       </c>
       <c r="I869" s="5" t="s">
@@ -36687,10 +36687,10 @@
       <c r="F870" s="5" t="s">
         <v>2425</v>
       </c>
-      <c r="G870" s="20" t="s">
+      <c r="G870" s="19" t="s">
         <v>2790</v>
       </c>
-      <c r="H870" s="21" t="s">
+      <c r="H870" s="20" t="s">
         <v>2791</v>
       </c>
       <c r="I870" s="5" t="s">
@@ -36723,10 +36723,10 @@
       <c r="F871" s="5" t="s">
         <v>2425</v>
       </c>
-      <c r="G871" s="20" t="s">
+      <c r="G871" s="19" t="s">
         <v>2790</v>
       </c>
-      <c r="H871" s="21" t="s">
+      <c r="H871" s="20" t="s">
         <v>2791</v>
       </c>
       <c r="I871" s="5" t="s">
@@ -36759,10 +36759,10 @@
       <c r="F872" s="5" t="s">
         <v>2425</v>
       </c>
-      <c r="G872" s="20" t="s">
+      <c r="G872" s="19" t="s">
         <v>2790</v>
       </c>
-      <c r="H872" s="21" t="s">
+      <c r="H872" s="20" t="s">
         <v>2791</v>
       </c>
       <c r="I872" s="5" t="s">
@@ -36795,10 +36795,10 @@
       <c r="F873" s="5" t="s">
         <v>2425</v>
       </c>
-      <c r="G873" s="20" t="s">
+      <c r="G873" s="19" t="s">
         <v>2790</v>
       </c>
-      <c r="H873" s="21" t="s">
+      <c r="H873" s="20" t="s">
         <v>2791</v>
       </c>
       <c r="I873" s="5" t="s">
@@ -36831,10 +36831,10 @@
       <c r="F874" s="5" t="s">
         <v>2425</v>
       </c>
-      <c r="G874" s="20" t="s">
+      <c r="G874" s="19" t="s">
         <v>2790</v>
       </c>
-      <c r="H874" s="21" t="s">
+      <c r="H874" s="20" t="s">
         <v>2791</v>
       </c>
       <c r="I874" s="5" t="s">
@@ -36867,10 +36867,10 @@
       <c r="F875" s="5" t="s">
         <v>2425</v>
       </c>
-      <c r="G875" s="20" t="s">
+      <c r="G875" s="19" t="s">
         <v>2790</v>
       </c>
-      <c r="H875" s="21" t="s">
+      <c r="H875" s="20" t="s">
         <v>2791</v>
       </c>
       <c r="I875" s="5" t="s">
@@ -36903,10 +36903,10 @@
       <c r="F876" s="5" t="s">
         <v>2425</v>
       </c>
-      <c r="G876" s="20" t="s">
+      <c r="G876" s="19" t="s">
         <v>2790</v>
       </c>
-      <c r="H876" s="21" t="s">
+      <c r="H876" s="20" t="s">
         <v>2791</v>
       </c>
       <c r="I876" s="5" t="s">
@@ -36939,10 +36939,10 @@
       <c r="F877" s="5" t="s">
         <v>2425</v>
       </c>
-      <c r="G877" s="20" t="s">
+      <c r="G877" s="19" t="s">
         <v>2790</v>
       </c>
-      <c r="H877" s="21" t="s">
+      <c r="H877" s="20" t="s">
         <v>2791</v>
       </c>
       <c r="I877" s="5" t="s">
@@ -36975,10 +36975,10 @@
       <c r="F878" s="5" t="s">
         <v>2425</v>
       </c>
-      <c r="G878" s="20" t="s">
+      <c r="G878" s="19" t="s">
         <v>2790</v>
       </c>
-      <c r="H878" s="21" t="s">
+      <c r="H878" s="20" t="s">
         <v>2791</v>
       </c>
       <c r="I878" s="5" t="s">
@@ -37011,10 +37011,10 @@
       <c r="F879" s="5" t="s">
         <v>2425</v>
       </c>
-      <c r="G879" s="20" t="s">
+      <c r="G879" s="19" t="s">
         <v>2790</v>
       </c>
-      <c r="H879" s="21" t="s">
+      <c r="H879" s="20" t="s">
         <v>2791</v>
       </c>
       <c r="I879" s="5" t="s">
@@ -37047,10 +37047,10 @@
       <c r="F880" s="5" t="s">
         <v>2425</v>
       </c>
-      <c r="G880" s="20" t="s">
+      <c r="G880" s="19" t="s">
         <v>2790</v>
       </c>
-      <c r="H880" s="21" t="s">
+      <c r="H880" s="20" t="s">
         <v>2791</v>
       </c>
       <c r="I880" s="5" t="s">
@@ -37083,10 +37083,10 @@
       <c r="F881" s="5" t="s">
         <v>2425</v>
       </c>
-      <c r="G881" s="20" t="s">
+      <c r="G881" s="19" t="s">
         <v>2790</v>
       </c>
-      <c r="H881" s="21" t="s">
+      <c r="H881" s="20" t="s">
         <v>3302</v>
       </c>
       <c r="I881" s="5" t="s">
@@ -37119,10 +37119,10 @@
       <c r="F882" s="5" t="s">
         <v>2425</v>
       </c>
-      <c r="G882" s="20" t="s">
+      <c r="G882" s="19" t="s">
         <v>2790</v>
       </c>
-      <c r="H882" s="21" t="s">
+      <c r="H882" s="20" t="s">
         <v>3302</v>
       </c>
       <c r="I882" s="5" t="s">
@@ -37155,10 +37155,10 @@
       <c r="F883" s="5" t="s">
         <v>2425</v>
       </c>
-      <c r="G883" s="20" t="s">
+      <c r="G883" s="19" t="s">
         <v>2790</v>
       </c>
-      <c r="H883" s="21" t="s">
+      <c r="H883" s="20" t="s">
         <v>3302</v>
       </c>
       <c r="I883" s="5" t="s">
@@ -37191,10 +37191,10 @@
       <c r="F884" s="5" t="s">
         <v>2425</v>
       </c>
-      <c r="G884" s="20" t="s">
+      <c r="G884" s="19" t="s">
         <v>2790</v>
       </c>
-      <c r="H884" s="21" t="s">
+      <c r="H884" s="20" t="s">
         <v>3302</v>
       </c>
       <c r="I884" s="5" t="s">
@@ -37227,10 +37227,10 @@
       <c r="F885" s="5" t="s">
         <v>2425</v>
       </c>
-      <c r="G885" s="20" t="s">
+      <c r="G885" s="19" t="s">
         <v>2790</v>
       </c>
-      <c r="H885" s="21" t="s">
+      <c r="H885" s="20" t="s">
         <v>3302</v>
       </c>
       <c r="I885" s="5" t="s">
@@ -39009,8 +39009,8 @@
       <c r="D947" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E947" s="15">
-        <v>43665</v>
+      <c r="E947" s="9" t="s">
+        <v>3329</v>
       </c>
       <c r="F947" s="5" t="s">
         <v>2294</v>
@@ -40724,7 +40724,7 @@
       <c r="M997" s="5"/>
       <c r="N997" s="8"/>
     </row>
-    <row r="998" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A998" s="4" t="s">
         <v>1407</v>
       </c>
@@ -40760,7 +40760,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="999" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A999" s="4" t="s">
         <v>1407</v>
       </c>
@@ -40796,7 +40796,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="1000" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1000" s="4" t="s">
         <v>1407</v>
       </c>
@@ -42056,7 +42056,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="1041" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1041" s="4" t="s">
         <v>1456</v>
       </c>
@@ -42104,7 +42104,7 @@
       <c r="M1042" s="5"/>
       <c r="N1042" s="8"/>
     </row>
-    <row r="1043" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1043" s="4" t="s">
         <v>1460</v>
       </c>
@@ -42140,7 +42140,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="1044" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1044" s="4" t="s">
         <v>1462</v>
       </c>
@@ -42164,7 +42164,7 @@
       <c r="M1044" s="5"/>
       <c r="N1044" s="8"/>
     </row>
-    <row r="1045" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1045" s="4" t="s">
         <v>1464</v>
       </c>
@@ -42236,7 +42236,7 @@
       <c r="M1047" s="5"/>
       <c r="N1047" s="8"/>
     </row>
-    <row r="1048" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1048" s="4" t="s">
         <v>1470</v>
       </c>
@@ -42464,7 +42464,7 @@
       <c r="M1055" s="5"/>
       <c r="N1055" s="8"/>
     </row>
-    <row r="1056" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1056" s="4" t="s">
         <v>1482</v>
       </c>
@@ -42488,7 +42488,7 @@
       <c r="M1056" s="5"/>
       <c r="N1056" s="8"/>
     </row>
-    <row r="1057" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1057" s="4" t="s">
         <v>1484</v>
       </c>
@@ -43196,7 +43196,7 @@
       <c r="M1080" s="5"/>
       <c r="N1080" s="8"/>
     </row>
-    <row r="1081" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1081" s="4" t="s">
         <v>1513</v>
       </c>
@@ -43244,7 +43244,7 @@
       <c r="M1082" s="5"/>
       <c r="N1082" s="8"/>
     </row>
-    <row r="1083" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1083" s="4" t="s">
         <v>1517</v>
       </c>
@@ -43268,7 +43268,7 @@
       <c r="M1083" s="5"/>
       <c r="N1083" s="8"/>
     </row>
-    <row r="1084" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1084" s="4" t="s">
         <v>1519</v>
       </c>
@@ -43340,7 +43340,7 @@
       <c r="M1086" s="5"/>
       <c r="N1086" s="8"/>
     </row>
-    <row r="1087" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1087" s="4" t="s">
         <v>1525</v>
       </c>
@@ -43364,7 +43364,7 @@
       <c r="M1087" s="5"/>
       <c r="N1087" s="8"/>
     </row>
-    <row r="1088" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1088" s="4" t="s">
         <v>1527</v>
       </c>
@@ -45632,7 +45632,7 @@
       <c r="M1156" s="5"/>
       <c r="N1156" s="8"/>
     </row>
-    <row r="1157" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1157" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1157" s="4" t="s">
         <v>1577</v>
       </c>
@@ -45956,7 +45956,7 @@
         <v>3045</v>
       </c>
     </row>
-    <row r="1167" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1167" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1167" s="4" t="s">
         <v>1587</v>
       </c>
@@ -46232,7 +46232,7 @@
       <c r="M1177" s="5"/>
       <c r="N1177" s="8"/>
     </row>
-    <row r="1178" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1178" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1178" s="4" t="s">
         <v>1609</v>
       </c>
@@ -47217,19 +47217,19 @@
       <c r="D1207" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1207" s="16" t="s">
+      <c r="E1207" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1207" s="17" t="s">
+      <c r="F1207" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1207" s="17" t="s">
+      <c r="G1207" s="16" t="s">
         <v>3047</v>
       </c>
-      <c r="H1207" s="17" t="s">
+      <c r="H1207" s="16" t="s">
         <v>3089</v>
       </c>
-      <c r="I1207" s="17" t="s">
+      <c r="I1207" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1207" s="5"/>
@@ -47253,19 +47253,19 @@
       <c r="D1208" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1208" s="16" t="s">
+      <c r="E1208" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1208" s="17" t="s">
+      <c r="F1208" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1208" s="17" t="s">
+      <c r="G1208" s="16" t="s">
         <v>3047</v>
       </c>
-      <c r="H1208" s="17" t="s">
+      <c r="H1208" s="16" t="s">
         <v>3056</v>
       </c>
-      <c r="I1208" s="17" t="s">
+      <c r="I1208" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1208" s="5"/>
@@ -47289,19 +47289,19 @@
       <c r="D1209" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1209" s="16" t="s">
+      <c r="E1209" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1209" s="17" t="s">
+      <c r="F1209" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1209" s="17" t="s">
+      <c r="G1209" s="16" t="s">
         <v>3049</v>
       </c>
-      <c r="H1209" s="17" t="s">
+      <c r="H1209" s="16" t="s">
         <v>3306</v>
       </c>
-      <c r="I1209" s="17" t="s">
+      <c r="I1209" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1209" s="5"/>
@@ -47325,19 +47325,19 @@
       <c r="D1210" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1210" s="16" t="s">
+      <c r="E1210" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1210" s="17" t="s">
+      <c r="F1210" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1210" s="17" t="s">
+      <c r="G1210" s="16" t="s">
         <v>3049</v>
       </c>
-      <c r="H1210" s="17" t="s">
+      <c r="H1210" s="16" t="s">
         <v>3307</v>
       </c>
-      <c r="I1210" s="17" t="s">
+      <c r="I1210" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1210" s="5"/>
@@ -47361,19 +47361,19 @@
       <c r="D1211" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1211" s="16" t="s">
+      <c r="E1211" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1211" s="17" t="s">
+      <c r="F1211" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1211" s="17" t="s">
+      <c r="G1211" s="16" t="s">
         <v>3048</v>
       </c>
-      <c r="H1211" s="17" t="s">
+      <c r="H1211" s="16" t="s">
         <v>3308</v>
       </c>
-      <c r="I1211" s="17" t="s">
+      <c r="I1211" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1211" s="5"/>
@@ -47397,19 +47397,19 @@
       <c r="D1212" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1212" s="16" t="s">
+      <c r="E1212" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1212" s="17" t="s">
+      <c r="F1212" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1212" s="17" t="s">
+      <c r="G1212" s="16" t="s">
         <v>3048</v>
       </c>
-      <c r="H1212" s="17" t="s">
+      <c r="H1212" s="16" t="s">
         <v>3309</v>
       </c>
-      <c r="I1212" s="17" t="s">
+      <c r="I1212" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1212" s="5"/>
@@ -47433,19 +47433,19 @@
       <c r="D1213" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1213" s="16" t="s">
+      <c r="E1213" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1213" s="17" t="s">
+      <c r="F1213" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1213" s="17" t="s">
+      <c r="G1213" s="16" t="s">
         <v>3048</v>
       </c>
-      <c r="H1213" s="17" t="s">
+      <c r="H1213" s="16" t="s">
         <v>3310</v>
       </c>
-      <c r="I1213" s="17" t="s">
+      <c r="I1213" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1213" s="5"/>
@@ -47469,19 +47469,19 @@
       <c r="D1214" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1214" s="16" t="s">
+      <c r="E1214" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1214" s="17" t="s">
+      <c r="F1214" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1214" s="17" t="s">
+      <c r="G1214" s="16" t="s">
         <v>3048</v>
       </c>
-      <c r="H1214" s="17" t="s">
+      <c r="H1214" s="16" t="s">
         <v>3067</v>
       </c>
-      <c r="I1214" s="17" t="s">
+      <c r="I1214" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1214" s="5"/>
@@ -47505,19 +47505,19 @@
       <c r="D1215" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1215" s="16" t="s">
+      <c r="E1215" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1215" s="17" t="s">
+      <c r="F1215" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1215" s="17" t="s">
+      <c r="G1215" s="16" t="s">
         <v>3048</v>
       </c>
-      <c r="H1215" s="17" t="s">
+      <c r="H1215" s="16" t="s">
         <v>3311</v>
       </c>
-      <c r="I1215" s="17" t="s">
+      <c r="I1215" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1215" s="5"/>
@@ -47541,19 +47541,19 @@
       <c r="D1216" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1216" s="16" t="s">
+      <c r="E1216" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1216" s="17" t="s">
+      <c r="F1216" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1216" s="17" t="s">
+      <c r="G1216" s="16" t="s">
         <v>3048</v>
       </c>
-      <c r="H1216" s="17" t="s">
+      <c r="H1216" s="16" t="s">
         <v>3312</v>
       </c>
-      <c r="I1216" s="17" t="s">
+      <c r="I1216" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1216" s="5"/>
@@ -47577,19 +47577,19 @@
       <c r="D1217" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1217" s="16" t="s">
+      <c r="E1217" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1217" s="17" t="s">
+      <c r="F1217" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1217" s="17" t="s">
+      <c r="G1217" s="16" t="s">
         <v>2711</v>
       </c>
-      <c r="H1217" s="17" t="s">
+      <c r="H1217" s="16" t="s">
         <v>3081</v>
       </c>
-      <c r="I1217" s="17" t="s">
+      <c r="I1217" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1217" s="5"/>
@@ -47613,19 +47613,19 @@
       <c r="D1218" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1218" s="16" t="s">
+      <c r="E1218" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1218" s="17" t="s">
+      <c r="F1218" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1218" s="17" t="s">
+      <c r="G1218" s="16" t="s">
         <v>2711</v>
       </c>
-      <c r="H1218" s="17" t="s">
+      <c r="H1218" s="16" t="s">
         <v>3313</v>
       </c>
-      <c r="I1218" s="17" t="s">
+      <c r="I1218" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1218" s="5"/>
@@ -47649,19 +47649,19 @@
       <c r="D1219" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1219" s="16" t="s">
+      <c r="E1219" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1219" s="17" t="s">
+      <c r="F1219" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1219" s="17" t="s">
+      <c r="G1219" s="16" t="s">
         <v>2711</v>
       </c>
-      <c r="H1219" s="17" t="s">
+      <c r="H1219" s="16" t="s">
         <v>3080</v>
       </c>
-      <c r="I1219" s="17" t="s">
+      <c r="I1219" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1219" s="5"/>
@@ -47685,19 +47685,19 @@
       <c r="D1220" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1220" s="16" t="s">
+      <c r="E1220" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1220" s="17" t="s">
+      <c r="F1220" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1220" s="17" t="s">
+      <c r="G1220" s="16" t="s">
         <v>2711</v>
       </c>
-      <c r="H1220" s="17" t="s">
+      <c r="H1220" s="16" t="s">
         <v>3314</v>
       </c>
-      <c r="I1220" s="17" t="s">
+      <c r="I1220" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1220" s="5"/>
@@ -47721,19 +47721,19 @@
       <c r="D1221" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1221" s="16" t="s">
+      <c r="E1221" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1221" s="17" t="s">
+      <c r="F1221" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1221" s="17" t="s">
+      <c r="G1221" s="16" t="s">
         <v>2711</v>
       </c>
-      <c r="H1221" s="17" t="s">
+      <c r="H1221" s="16" t="s">
         <v>3315</v>
       </c>
-      <c r="I1221" s="17" t="s">
+      <c r="I1221" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1221" s="5"/>
@@ -47757,19 +47757,19 @@
       <c r="D1222" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1222" s="16" t="s">
+      <c r="E1222" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1222" s="17" t="s">
+      <c r="F1222" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1222" s="17" t="s">
+      <c r="G1222" s="16" t="s">
         <v>2711</v>
       </c>
-      <c r="H1222" s="17" t="s">
+      <c r="H1222" s="16" t="s">
         <v>3316</v>
       </c>
-      <c r="I1222" s="17" t="s">
+      <c r="I1222" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1222" s="5"/>
@@ -47793,19 +47793,19 @@
       <c r="D1223" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1223" s="16" t="s">
+      <c r="E1223" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1223" s="17" t="s">
+      <c r="F1223" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1223" s="17" t="s">
+      <c r="G1223" s="16" t="s">
         <v>3050</v>
       </c>
-      <c r="H1223" s="17" t="s">
+      <c r="H1223" s="16" t="s">
         <v>3317</v>
       </c>
-      <c r="I1223" s="17" t="s">
+      <c r="I1223" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1223" s="5"/>
@@ -47829,19 +47829,19 @@
       <c r="D1224" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1224" s="16" t="s">
+      <c r="E1224" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1224" s="17" t="s">
+      <c r="F1224" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1224" s="17" t="s">
+      <c r="G1224" s="16" t="s">
         <v>3050</v>
       </c>
-      <c r="H1224" s="17" t="s">
+      <c r="H1224" s="16" t="s">
         <v>3060</v>
       </c>
-      <c r="I1224" s="17" t="s">
+      <c r="I1224" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1224" s="5"/>
@@ -47865,19 +47865,19 @@
       <c r="D1225" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1225" s="16" t="s">
+      <c r="E1225" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1225" s="17" t="s">
+      <c r="F1225" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1225" s="17" t="s">
+      <c r="G1225" s="16" t="s">
         <v>3050</v>
       </c>
-      <c r="H1225" s="17" t="s">
+      <c r="H1225" s="16" t="s">
         <v>3062</v>
       </c>
-      <c r="I1225" s="17" t="s">
+      <c r="I1225" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1225" s="5"/>
@@ -47901,19 +47901,19 @@
       <c r="D1226" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1226" s="16" t="s">
+      <c r="E1226" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1226" s="17" t="s">
+      <c r="F1226" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1226" s="17" t="s">
+      <c r="G1226" s="16" t="s">
         <v>3050</v>
       </c>
-      <c r="H1226" s="17" t="s">
+      <c r="H1226" s="16" t="s">
         <v>3059</v>
       </c>
-      <c r="I1226" s="17" t="s">
+      <c r="I1226" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1226" s="5"/>
@@ -47937,19 +47937,19 @@
       <c r="D1227" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1227" s="16" t="s">
+      <c r="E1227" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1227" s="17" t="s">
+      <c r="F1227" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1227" s="17" t="s">
+      <c r="G1227" s="16" t="s">
         <v>3050</v>
       </c>
-      <c r="H1227" s="17" t="s">
+      <c r="H1227" s="16" t="s">
         <v>3061</v>
       </c>
-      <c r="I1227" s="17" t="s">
+      <c r="I1227" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1227" s="5"/>
@@ -47973,19 +47973,19 @@
       <c r="D1228" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1228" s="16" t="s">
+      <c r="E1228" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1228" s="17" t="s">
+      <c r="F1228" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1228" s="17" t="s">
+      <c r="G1228" s="16" t="s">
         <v>3051</v>
       </c>
-      <c r="H1228" s="17" t="s">
+      <c r="H1228" s="16" t="s">
         <v>3318</v>
       </c>
-      <c r="I1228" s="17" t="s">
+      <c r="I1228" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1228" s="5"/>
@@ -48009,19 +48009,19 @@
       <c r="D1229" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1229" s="16" t="s">
+      <c r="E1229" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1229" s="17" t="s">
+      <c r="F1229" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1229" s="17" t="s">
+      <c r="G1229" s="16" t="s">
         <v>3051</v>
       </c>
-      <c r="H1229" s="17" t="s">
+      <c r="H1229" s="16" t="s">
         <v>3304</v>
       </c>
-      <c r="I1229" s="17" t="s">
+      <c r="I1229" s="16" t="s">
         <v>3303</v>
       </c>
       <c r="J1229" s="5"/>
@@ -48045,19 +48045,19 @@
       <c r="D1230" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1230" s="16" t="s">
+      <c r="E1230" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1230" s="17" t="s">
+      <c r="F1230" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1230" s="17" t="s">
+      <c r="G1230" s="16" t="s">
         <v>3051</v>
       </c>
-      <c r="H1230" s="17" t="s">
+      <c r="H1230" s="16" t="s">
         <v>3319</v>
       </c>
-      <c r="I1230" s="17" t="s">
+      <c r="I1230" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1230" s="5"/>
@@ -48081,19 +48081,19 @@
       <c r="D1231" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1231" s="16" t="s">
+      <c r="E1231" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1231" s="17" t="s">
+      <c r="F1231" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1231" s="17" t="s">
+      <c r="G1231" s="16" t="s">
         <v>3051</v>
       </c>
-      <c r="H1231" s="17" t="s">
+      <c r="H1231" s="16" t="s">
         <v>3320</v>
       </c>
-      <c r="I1231" s="17" t="s">
+      <c r="I1231" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1231" s="5"/>
@@ -48117,19 +48117,19 @@
       <c r="D1232" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1232" s="16" t="s">
+      <c r="E1232" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1232" s="17" t="s">
+      <c r="F1232" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1232" s="17" t="s">
+      <c r="G1232" s="16" t="s">
         <v>3051</v>
       </c>
-      <c r="H1232" s="17" t="s">
+      <c r="H1232" s="16" t="s">
         <v>3321</v>
       </c>
-      <c r="I1232" s="17" t="s">
+      <c r="I1232" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1232" s="5"/>
@@ -48153,19 +48153,19 @@
       <c r="D1233" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1233" s="16" t="s">
+      <c r="E1233" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1233" s="17" t="s">
+      <c r="F1233" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1233" s="17" t="s">
+      <c r="G1233" s="16" t="s">
         <v>3051</v>
       </c>
-      <c r="H1233" s="17" t="s">
+      <c r="H1233" s="16" t="s">
         <v>3322</v>
       </c>
-      <c r="I1233" s="17" t="s">
+      <c r="I1233" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1233" s="5"/>
@@ -48189,19 +48189,19 @@
       <c r="D1234" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1234" s="16" t="s">
+      <c r="E1234" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1234" s="17" t="s">
+      <c r="F1234" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1234" s="17" t="s">
+      <c r="G1234" s="16" t="s">
         <v>3051</v>
       </c>
-      <c r="H1234" s="17" t="s">
+      <c r="H1234" s="16" t="s">
         <v>3323</v>
       </c>
-      <c r="I1234" s="17" t="s">
+      <c r="I1234" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1234" s="5"/>
@@ -48225,19 +48225,19 @@
       <c r="D1235" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1235" s="16" t="s">
+      <c r="E1235" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1235" s="17" t="s">
+      <c r="F1235" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1235" s="17" t="s">
+      <c r="G1235" s="16" t="s">
         <v>3051</v>
       </c>
-      <c r="H1235" s="17" t="s">
+      <c r="H1235" s="16" t="s">
         <v>3324</v>
       </c>
-      <c r="I1235" s="17" t="s">
+      <c r="I1235" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1235" s="5"/>
@@ -48261,19 +48261,19 @@
       <c r="D1236" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1236" s="16" t="s">
+      <c r="E1236" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1236" s="17" t="s">
+      <c r="F1236" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1236" s="17" t="s">
+      <c r="G1236" s="16" t="s">
         <v>3051</v>
       </c>
-      <c r="H1236" s="17" t="s">
+      <c r="H1236" s="16" t="s">
         <v>3325</v>
       </c>
-      <c r="I1236" s="17" t="s">
+      <c r="I1236" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1236" s="5"/>
@@ -48297,19 +48297,19 @@
       <c r="D1237" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1237" s="16" t="s">
+      <c r="E1237" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1237" s="17" t="s">
+      <c r="F1237" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1237" s="17" t="s">
+      <c r="G1237" s="16" t="s">
         <v>3052</v>
       </c>
-      <c r="H1237" s="17" t="s">
+      <c r="H1237" s="16" t="s">
         <v>3326</v>
       </c>
-      <c r="I1237" s="17" t="s">
+      <c r="I1237" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1237" s="5"/>
@@ -48333,19 +48333,19 @@
       <c r="D1238" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1238" s="16" t="s">
+      <c r="E1238" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1238" s="17" t="s">
+      <c r="F1238" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1238" s="17" t="s">
+      <c r="G1238" s="16" t="s">
         <v>3052</v>
       </c>
-      <c r="H1238" s="17" t="s">
+      <c r="H1238" s="16" t="s">
         <v>3327</v>
       </c>
-      <c r="I1238" s="17" t="s">
+      <c r="I1238" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1238" s="5"/>
@@ -48369,19 +48369,19 @@
       <c r="D1239" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1239" s="16" t="s">
+      <c r="E1239" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1239" s="17" t="s">
+      <c r="F1239" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1239" s="17" t="s">
+      <c r="G1239" s="16" t="s">
         <v>3052</v>
       </c>
-      <c r="H1239" s="17" t="s">
+      <c r="H1239" s="16" t="s">
         <v>3065</v>
       </c>
-      <c r="I1239" s="17" t="s">
+      <c r="I1239" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1239" s="5"/>
@@ -48405,19 +48405,19 @@
       <c r="D1240" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1240" s="16" t="s">
+      <c r="E1240" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1240" s="17" t="s">
+      <c r="F1240" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1240" s="17" t="s">
+      <c r="G1240" s="16" t="s">
         <v>3052</v>
       </c>
-      <c r="H1240" s="17" t="s">
+      <c r="H1240" s="16" t="s">
         <v>3328</v>
       </c>
-      <c r="I1240" s="17" t="s">
+      <c r="I1240" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1240" s="5"/>
@@ -48441,19 +48441,19 @@
       <c r="D1241" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1241" s="16" t="s">
+      <c r="E1241" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1241" s="17" t="s">
+      <c r="F1241" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1241" s="17" t="s">
+      <c r="G1241" s="16" t="s">
         <v>3053</v>
       </c>
-      <c r="H1241" s="17" t="s">
-        <v>2260</v>
-      </c>
-      <c r="I1241" s="17" t="s">
+      <c r="H1241" s="16" t="s">
+        <v>2260</v>
+      </c>
+      <c r="I1241" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1241" s="5"/>
@@ -48477,19 +48477,19 @@
       <c r="D1242" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1242" s="16" t="s">
+      <c r="E1242" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="F1242" s="17" t="s">
+      <c r="F1242" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="G1242" s="17" t="s">
+      <c r="G1242" s="16" t="s">
         <v>3074</v>
       </c>
-      <c r="H1242" s="17" t="s">
+      <c r="H1242" s="16" t="s">
         <v>3305</v>
       </c>
-      <c r="I1242" s="17" t="s">
+      <c r="I1242" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1242" s="5"/>
@@ -48597,7 +48597,7 @@
       <c r="H1245" s="5" t="s">
         <v>3076</v>
       </c>
-      <c r="I1245" s="17" t="s">
+      <c r="I1245" s="16" t="s">
         <v>3082</v>
       </c>
       <c r="J1245" s="5"/>
@@ -48633,7 +48633,7 @@
       <c r="H1246" s="5" t="s">
         <v>3080</v>
       </c>
-      <c r="I1246" s="17" t="s">
+      <c r="I1246" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1246" s="5"/>
@@ -48669,7 +48669,7 @@
       <c r="H1247" s="5" t="s">
         <v>3081</v>
       </c>
-      <c r="I1247" s="17" t="s">
+      <c r="I1247" s="16" t="s">
         <v>2260</v>
       </c>
       <c r="J1247" s="5"/>
@@ -49460,7 +49460,7 @@
       <c r="M1272" s="5"/>
       <c r="N1272" s="8"/>
     </row>
-    <row r="1273" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1273" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1273" s="4" t="s">
         <v>1669</v>
       </c>
@@ -49592,7 +49592,7 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="1278" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1278" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1278" s="4" t="s">
         <v>1679</v>
       </c>
@@ -49616,7 +49616,7 @@
       <c r="M1278" s="5"/>
       <c r="N1278" s="8"/>
     </row>
-    <row r="1279" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1279" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1279" s="4" t="s">
         <v>1681</v>
       </c>
@@ -49664,7 +49664,7 @@
       <c r="M1280" s="5"/>
       <c r="N1280" s="8"/>
     </row>
-    <row r="1281" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1281" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1281" s="4" t="s">
         <v>1685</v>
       </c>
@@ -50790,7 +50790,7 @@
       <c r="M1319" s="5"/>
       <c r="N1319" s="8"/>
     </row>
-    <row r="1320" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1320" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1320" s="4" t="s">
         <v>1750</v>
       </c>
@@ -50838,7 +50838,7 @@
       <c r="M1321" s="5"/>
       <c r="N1321" s="8"/>
     </row>
-    <row r="1322" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1322" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1322" s="4" t="s">
         <v>1754</v>
       </c>
@@ -50874,7 +50874,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="1323" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1323" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1323" s="4" t="s">
         <v>1756</v>
       </c>
@@ -51750,7 +51750,7 @@
       <c r="M1352" s="5"/>
       <c r="N1352" s="8"/>
     </row>
-    <row r="1353" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1353" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1353" s="4" t="s">
         <v>1793</v>
       </c>
@@ -51918,7 +51918,7 @@
       <c r="M1359" s="5"/>
       <c r="N1359" s="8"/>
     </row>
-    <row r="1360" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1360" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1360" s="4" t="s">
         <v>1807</v>
       </c>
@@ -51990,7 +51990,7 @@
       <c r="M1362" s="5"/>
       <c r="N1362" s="8"/>
     </row>
-    <row r="1363" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1363" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1363" s="4" t="s">
         <v>1813</v>
       </c>
@@ -52110,7 +52110,7 @@
       <c r="M1367" s="5"/>
       <c r="N1367" s="8"/>
     </row>
-    <row r="1368" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1368" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1368" s="4" t="s">
         <v>1823</v>
       </c>
@@ -52134,7 +52134,7 @@
       <c r="M1368" s="5"/>
       <c r="N1368" s="8"/>
     </row>
-    <row r="1369" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1369" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1369" s="4" t="s">
         <v>1826</v>
       </c>
@@ -52326,7 +52326,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="1375" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1375" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1375" s="4" t="s">
         <v>1832</v>
       </c>
@@ -52362,7 +52362,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="1376" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1376" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1376" s="4" t="s">
         <v>1832</v>
       </c>
@@ -52434,7 +52434,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="1378" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1378" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1378" s="4" t="s">
         <v>1836</v>
       </c>
@@ -52506,7 +52506,7 @@
       <c r="M1380" s="5"/>
       <c r="N1380" s="8"/>
     </row>
-    <row r="1381" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1381" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1381" s="4" t="s">
         <v>1842</v>
       </c>
@@ -52578,7 +52578,7 @@
       <c r="M1383" s="5"/>
       <c r="N1383" s="8"/>
     </row>
-    <row r="1384" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1384" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1384" s="4" t="s">
         <v>1848</v>
       </c>
@@ -52602,7 +52602,7 @@
       <c r="M1384" s="5"/>
       <c r="N1384" s="8"/>
     </row>
-    <row r="1385" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1385" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1385" s="4" t="s">
         <v>1850</v>
       </c>
@@ -52842,7 +52842,7 @@
       <c r="M1392" s="5"/>
       <c r="N1392" s="8"/>
     </row>
-    <row r="1393" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1393" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1393" s="4" t="s">
         <v>1862</v>
       </c>
@@ -52878,7 +52878,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="1394" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1394" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1394" s="4" t="s">
         <v>1862</v>
       </c>
@@ -52914,7 +52914,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="1395" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1395" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1395" s="4" t="s">
         <v>1862</v>
       </c>
@@ -52950,7 +52950,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="1396" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1396" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1396" s="4" t="s">
         <v>1862</v>
       </c>
@@ -52986,7 +52986,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="1397" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1397" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1397" s="4" t="s">
         <v>1862</v>
       </c>
@@ -53022,7 +53022,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="1398" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1398" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1398" s="4" t="s">
         <v>1862</v>
       </c>
@@ -53058,7 +53058,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="1399" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1399" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1399" s="4" t="s">
         <v>1862</v>
       </c>
@@ -53094,7 +53094,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="1400" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1400" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1400" s="4" t="s">
         <v>1862</v>
       </c>
@@ -53130,7 +53130,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="1401" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1401" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1401" s="4" t="s">
         <v>1862</v>
       </c>
@@ -53166,7 +53166,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="1402" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1402" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1402" s="4" t="s">
         <v>1862</v>
       </c>
@@ -53202,7 +53202,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="1403" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1403" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1403" s="4" t="s">
         <v>1862</v>
       </c>
@@ -53238,7 +53238,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="1404" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1404" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1404" s="4" t="s">
         <v>1862</v>
       </c>
@@ -53274,7 +53274,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="1405" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1405" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1405" s="4" t="s">
         <v>1862</v>
       </c>
@@ -53310,7 +53310,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="1406" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1406" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1406" s="4" t="s">
         <v>1862</v>
       </c>
@@ -53346,7 +53346,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="1407" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1407" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1407" s="4" t="s">
         <v>1862</v>
       </c>
@@ -53382,7 +53382,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="1408" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1408" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1408" s="4" t="s">
         <v>1862</v>
       </c>
@@ -53418,7 +53418,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="1409" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1409" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1409" s="4" t="s">
         <v>1862</v>
       </c>
@@ -57258,7 +57258,7 @@
       <c r="M1554" s="5"/>
       <c r="N1554" s="8"/>
     </row>
-    <row r="1555" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1555" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1555" s="4" t="s">
         <v>2125</v>
       </c>
@@ -57474,7 +57474,7 @@
       <c r="M1563" s="5"/>
       <c r="N1563" s="8"/>
     </row>
-    <row r="1564" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1564" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1564" s="4" t="s">
         <v>2144</v>
       </c>
@@ -57546,7 +57546,7 @@
       <c r="M1566" s="5"/>
       <c r="N1566" s="8"/>
     </row>
-    <row r="1567" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1567" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1567" s="4" t="s">
         <v>2150</v>
       </c>
@@ -57738,7 +57738,7 @@
       <c r="M1573" s="5"/>
       <c r="N1573" s="8"/>
     </row>
-    <row r="1574" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1574" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1574" s="4" t="s">
         <v>2164</v>
       </c>
@@ -57834,7 +57834,7 @@
       <c r="M1577" s="5"/>
       <c r="N1577" s="8"/>
     </row>
-    <row r="1578" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1578" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1578" s="4" t="s">
         <v>2173</v>
       </c>
@@ -57882,7 +57882,7 @@
       <c r="M1579" s="5"/>
       <c r="N1579" s="8"/>
     </row>
-    <row r="1580" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1580" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1580" s="4" t="s">
         <v>2177</v>
       </c>
@@ -57906,7 +57906,7 @@
       <c r="M1580" s="5"/>
       <c r="N1580" s="8"/>
     </row>
-    <row r="1581" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1581" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1581" s="4" t="s">
         <v>2179</v>
       </c>
@@ -57990,7 +57990,7 @@
         <v>3246</v>
       </c>
     </row>
-    <row r="1584" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1584" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1584" s="4" t="s">
         <v>2185</v>
       </c>
@@ -58026,7 +58026,7 @@
         <v>3246</v>
       </c>
     </row>
-    <row r="1585" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1585" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1585" s="4" t="s">
         <v>2185</v>
       </c>
@@ -58062,7 +58062,7 @@
         <v>3246</v>
       </c>
     </row>
-    <row r="1586" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1586" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1586" s="4" t="s">
         <v>2187</v>
       </c>
@@ -58110,7 +58110,7 @@
       <c r="M1587" s="5"/>
       <c r="N1587" s="8"/>
     </row>
-    <row r="1588" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1588" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1588" s="4" t="s">
         <v>2191</v>
       </c>
@@ -58123,7 +58123,7 @@
       <c r="D1588" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="E1588" s="18" t="s">
+      <c r="E1588" s="17" t="s">
         <v>3251</v>
       </c>
       <c r="F1588" s="5" t="s">
@@ -58446,7 +58446,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="1600" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1600" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1600" s="4" t="s">
         <v>2212</v>
       </c>
@@ -58470,7 +58470,7 @@
       <c r="M1600" s="5"/>
       <c r="N1600" s="8"/>
     </row>
-    <row r="1601" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1601" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1601" s="4" t="s">
         <v>2214</v>
       </c>
@@ -59238,7 +59238,7 @@
         <v>3275</v>
       </c>
     </row>
-    <row r="1624" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1624" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1624" s="4" t="s">
         <v>2234</v>
       </c>
@@ -59407,7 +59407,7 @@
       <c r="D1630" s="7" t="s">
         <v>2249</v>
       </c>
-      <c r="E1630" s="19" t="s">
+      <c r="E1630" s="18" t="s">
         <v>3279</v>
       </c>
       <c r="F1630" s="7" t="s">
@@ -59443,7 +59443,7 @@
       <c r="D1631" s="7" t="s">
         <v>2249</v>
       </c>
-      <c r="E1631" s="19" t="s">
+      <c r="E1631" s="18" t="s">
         <v>3279</v>
       </c>
       <c r="F1631" s="7" t="s">
@@ -59479,7 +59479,7 @@
       <c r="D1632" s="7" t="s">
         <v>2249</v>
       </c>
-      <c r="E1632" s="19" t="s">
+      <c r="E1632" s="18" t="s">
         <v>3279</v>
       </c>
       <c r="F1632" s="7" t="s">
@@ -59515,7 +59515,7 @@
       <c r="D1633" s="7" t="s">
         <v>2249</v>
       </c>
-      <c r="E1633" s="19" t="s">
+      <c r="E1633" s="18" t="s">
         <v>3279</v>
       </c>
       <c r="F1633" s="7" t="s">
@@ -59551,7 +59551,7 @@
       <c r="D1634" s="7" t="s">
         <v>2249</v>
       </c>
-      <c r="E1634" s="19" t="s">
+      <c r="E1634" s="18" t="s">
         <v>3279</v>
       </c>
       <c r="F1634" s="7" t="s">
@@ -59587,7 +59587,7 @@
       <c r="D1635" s="7" t="s">
         <v>2249</v>
       </c>
-      <c r="E1635" s="19" t="s">
+      <c r="E1635" s="18" t="s">
         <v>3279</v>
       </c>
       <c r="F1635" s="7" t="s">
@@ -59623,7 +59623,7 @@
       <c r="D1636" s="7" t="s">
         <v>2249</v>
       </c>
-      <c r="E1636" s="19" t="s">
+      <c r="E1636" s="18" t="s">
         <v>3279</v>
       </c>
       <c r="F1636" s="7" t="s">
@@ -59659,7 +59659,7 @@
       <c r="D1637" s="7" t="s">
         <v>2249</v>
       </c>
-      <c r="E1637" s="19" t="s">
+      <c r="E1637" s="18" t="s">
         <v>3279</v>
       </c>
       <c r="F1637" s="7" t="s">
@@ -59695,7 +59695,7 @@
       <c r="D1638" s="7" t="s">
         <v>2249</v>
       </c>
-      <c r="E1638" s="19" t="s">
+      <c r="E1638" s="18" t="s">
         <v>3279</v>
       </c>
       <c r="F1638" s="7" t="s">
@@ -59731,7 +59731,7 @@
       <c r="D1639" s="7" t="s">
         <v>2249</v>
       </c>
-      <c r="E1639" s="19" t="s">
+      <c r="E1639" s="18" t="s">
         <v>3279</v>
       </c>
       <c r="F1639" s="7" t="s">
@@ -59767,7 +59767,7 @@
       <c r="D1640" s="7" t="s">
         <v>2249</v>
       </c>
-      <c r="E1640" s="19" t="s">
+      <c r="E1640" s="18" t="s">
         <v>3279</v>
       </c>
       <c r="F1640" s="7" t="s">
@@ -59803,7 +59803,7 @@
       <c r="D1641" s="7" t="s">
         <v>2249</v>
       </c>
-      <c r="E1641" s="19" t="s">
+      <c r="E1641" s="18" t="s">
         <v>3279</v>
       </c>
       <c r="F1641" s="7" t="s">
@@ -59839,7 +59839,7 @@
       <c r="D1642" s="7" t="s">
         <v>2249</v>
       </c>
-      <c r="E1642" s="19" t="s">
+      <c r="E1642" s="18" t="s">
         <v>3279</v>
       </c>
       <c r="F1642" s="7" t="s">
@@ -59875,7 +59875,7 @@
       <c r="D1643" s="7" t="s">
         <v>2249</v>
       </c>
-      <c r="E1643" s="19" t="s">
+      <c r="E1643" s="18" t="s">
         <v>3279</v>
       </c>
       <c r="F1643" s="7" t="s">
@@ -59911,7 +59911,7 @@
       <c r="D1644" s="7" t="s">
         <v>2249</v>
       </c>
-      <c r="E1644" s="19" t="s">
+      <c r="E1644" s="18" t="s">
         <v>3279</v>
       </c>
       <c r="F1644" s="7" t="s">
@@ -59947,7 +59947,7 @@
       <c r="D1645" s="7" t="s">
         <v>2249</v>
       </c>
-      <c r="E1645" s="19" t="s">
+      <c r="E1645" s="18" t="s">
         <v>3279</v>
       </c>
       <c r="F1645" s="7" t="s">
@@ -59983,7 +59983,7 @@
       <c r="D1646" s="7" t="s">
         <v>2249</v>
       </c>
-      <c r="E1646" s="19" t="s">
+      <c r="E1646" s="18" t="s">
         <v>3279</v>
       </c>
       <c r="F1646" s="7" t="s">
@@ -60019,7 +60019,7 @@
       <c r="D1647" s="7" t="s">
         <v>2249</v>
       </c>
-      <c r="E1647" s="19" t="s">
+      <c r="E1647" s="18" t="s">
         <v>3279</v>
       </c>
       <c r="F1647" s="7" t="s">
@@ -60055,7 +60055,7 @@
       <c r="D1648" s="7" t="s">
         <v>2249</v>
       </c>
-      <c r="E1648" s="19" t="s">
+      <c r="E1648" s="18" t="s">
         <v>3279</v>
       </c>
       <c r="F1648" s="7" t="s">
@@ -60091,7 +60091,7 @@
       <c r="D1649" s="7" t="s">
         <v>2249</v>
       </c>
-      <c r="E1649" s="19" t="s">
+      <c r="E1649" s="18" t="s">
         <v>3279</v>
       </c>
       <c r="F1649" s="7" t="s">
@@ -60127,7 +60127,7 @@
       <c r="D1650" s="7" t="s">
         <v>2249</v>
       </c>
-      <c r="E1650" s="19" t="s">
+      <c r="E1650" s="18" t="s">
         <v>3279</v>
       </c>
       <c r="F1650" s="7" t="s">
